--- a/Excel Data/corporateCustomerCreation.xlsx
+++ b/Excel Data/corporateCustomerCreation.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
   <si>
     <t>EntityType</t>
   </si>
@@ -88,6 +88,90 @@
   </si>
   <si>
     <t>CC90008</t>
+  </si>
+  <si>
+    <t>TEXT:1</t>
+  </si>
+  <si>
+    <t>CUST.SEGMENT</t>
+  </si>
+  <si>
+    <t>REL.MANAGER</t>
+  </si>
+  <si>
+    <t>CUS.TYPE.LC</t>
+  </si>
+  <si>
+    <t>NAME.2:1</t>
+  </si>
+  <si>
+    <t>TOWN.COUNTRY:1</t>
+  </si>
+  <si>
+    <t>POST.CODE:1</t>
+  </si>
+  <si>
+    <t>CUST.OFF.PHONE:1</t>
+  </si>
+  <si>
+    <t>RELATION.CODE:1</t>
+  </si>
+  <si>
+    <t>REL.CUSTOMER:1</t>
+  </si>
+  <si>
+    <t>PERSONAL.BANK</t>
+  </si>
+  <si>
+    <t>OTHER.OFFICER:1</t>
+  </si>
+  <si>
+    <t>CRC</t>
+  </si>
+  <si>
+    <t>INTRO.ACC.NO</t>
+  </si>
+  <si>
+    <t>INTRO.MAINT.DAT</t>
+  </si>
+  <si>
+    <t>INTRO.NAME</t>
+  </si>
+  <si>
+    <t>INTRO.BNK.NAME:1</t>
+  </si>
+  <si>
+    <t>INTRO.BR.NAME:1</t>
+  </si>
+  <si>
+    <t>ITRO.ADD:1</t>
+  </si>
+  <si>
+    <t>INTRO.CON.NO</t>
+  </si>
+  <si>
+    <t>CP.NAME:1</t>
+  </si>
+  <si>
+    <t>CP.TITLE:1</t>
+  </si>
+  <si>
+    <t>CP.ADD:1</t>
+  </si>
+  <si>
+    <t>CP.ADD2:1</t>
+  </si>
+  <si>
+    <t>CP.PH.OFF:1</t>
+  </si>
+  <si>
+    <t>CP.FAX.NO:1</t>
+  </si>
+  <si>
+    <t>CP.CELL.NO:1</t>
+  </si>
+  <si>
+    <t>CP.PH.RES:1</t>
   </si>
 </sst>
 </file>
@@ -406,34 +490,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:AS3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AM9" sqref="AM9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="12" customWidth="1"/>
+    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="19.28515625" customWidth="1"/>
+    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="22" width="12.28515625" customWidth="1"/>
+    <col min="23" max="23" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -441,154 +529,238 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="R1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="X1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="Y1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Z1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="AA1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="AB1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="AC1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="AD1" t="s">
         <v>17</v>
       </c>
+      <c r="AE1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>35</v>
       </c>
       <c r="B2">
         <v>112</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>2</v>
-      </c>
-      <c r="D2">
-        <v>42693000000</v>
       </c>
       <c r="E2">
         <v>42693000000</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2">
+        <v>42693000000</v>
+      </c>
+      <c r="J2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H2" t="s">
+      <c r="L2" t="s">
         <v>21</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2">
-        <v>1001</v>
-      </c>
-      <c r="K2">
-        <v>21</v>
-      </c>
-      <c r="L2">
-        <v>31</v>
-      </c>
-      <c r="M2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>1282</v>
-      </c>
-      <c r="P2" t="s">
-        <v>15</v>
       </c>
       <c r="Q2" t="s">
         <v>15</v>
       </c>
+      <c r="W2">
+        <v>1001</v>
+      </c>
+      <c r="X2">
+        <v>21</v>
+      </c>
+      <c r="Y2">
+        <v>31</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA2">
+        <v>1</v>
+      </c>
+      <c r="AB2">
+        <v>1282</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>36</v>
       </c>
       <c r="B3">
         <v>112</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>2</v>
-      </c>
-      <c r="D3">
-        <v>42693000000</v>
       </c>
       <c r="E3">
         <v>42693000000</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3">
+        <v>42693000000</v>
+      </c>
+      <c r="J3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H3" t="s">
+      <c r="L3" t="s">
         <v>22</v>
       </c>
-      <c r="I3" t="s">
+      <c r="Q3" t="s">
         <v>15</v>
       </c>
-      <c r="J3">
+      <c r="W3">
         <v>1001</v>
       </c>
-      <c r="K3">
+      <c r="X3">
         <v>21</v>
       </c>
-      <c r="L3">
+      <c r="Y3">
         <v>31</v>
       </c>
-      <c r="M3" t="s">
+      <c r="Z3" t="s">
         <v>15</v>
       </c>
-      <c r="N3">
+      <c r="AA3">
         <v>1</v>
       </c>
-      <c r="O3">
+      <c r="AB3">
         <v>1292</v>
       </c>
-      <c r="P3" t="s">
+      <c r="AC3" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="AD3" t="s">
         <v>15</v>
       </c>
     </row>
